--- a/docs/PerformanceGenerator.xlsx
+++ b/docs/PerformanceGenerator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/yaronprigal_microsoft_com/Documents/Documents/Customers/82/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaronprigal/sources/github/sample-azure-eventer/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="8_{5E3EC413-896A-3D4A-A899-34E6398F043C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{235E5D24-331A-FF44-A7DF-33DC07075BC7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B3A291-28AD-4044-BFCB-2C72F9FD476A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
+    <workbookView xWindow="-51200" yWindow="-6560" windowWidth="51200" windowHeight="28300" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
   <si>
     <t>Parallel process on same node</t>
   </si>
@@ -254,13 +254,71 @@
   </si>
   <si>
     <t>1500 files</t>
+  </si>
+  <si>
+    <t>3*100</t>
+  </si>
+  <si>
+    <t>2*100</t>
+  </si>
+  <si>
+    <t>400 (2*200)files</t>
+  </si>
+  <si>
+    <t>upload  3MB file- for 30 sec</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 2 process will be on separate worker on nodepool</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -Describe in more details the numbers and the process</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,6 +359,29 @@
     <font>
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -381,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -446,6 +527,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B43E74-5CC3-EB49-A9D0-22415A944AAB}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="213" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>64</v>
@@ -851,7 +944,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -859,7 +952,9 @@
       <c r="C8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
         <v>61</v>
@@ -867,7 +962,7 @@
       <c r="G8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="28" t="s">
         <v>47</v>
       </c>
       <c r="I8" s="17" t="s">
@@ -940,12 +1035,14 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="F12" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>68</v>
+      <c r="G12" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>69</v>
@@ -954,7 +1051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -962,7 +1059,9 @@
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="20" t="s">
         <v>59</v>
@@ -1043,7 +1142,9 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="F17" s="21" t="s">
         <v>66</v>
       </c>
@@ -1067,7 +1168,7 @@
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="27" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="14" t="s">

--- a/docs/PerformanceGenerator.xlsx
+++ b/docs/PerformanceGenerator.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaronprigal/sources/github/sample-azure-eventer/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A4AA3D-AFE3-C840-BB0B-90A5CA125198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF1264D-529F-2140-AD24-EB20C47814B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
   <si>
     <t>300ms</t>
   </si>
@@ -415,14 +416,373 @@
     <t xml:space="preserve">avg storage success e2e  latency </t>
   </si>
   <si>
-    <t>avg e2e flow</t>
+    <t xml:space="preserve">200 files for 1min </t>
+  </si>
+  <si>
+    <t>keda+eventhub std-1tu, 2 nodes</t>
+  </si>
+  <si>
+    <t>upload-append-upload</t>
+  </si>
+  <si>
+    <t>1.40min</t>
+  </si>
+  <si>
+    <t>36sec</t>
+  </si>
+  <si>
+    <t>without keda eventhub std-1tu, 2 nodes</t>
+  </si>
+  <si>
+    <t>AI: calc the avg to reach to 1st service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI: calc 95th </t>
+  </si>
+  <si>
+    <t>AI: check why sometimes logs not written</t>
+  </si>
+  <si>
+    <t>pool 1: Standard_F4s_v2 
+pool 2: D4s_v3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>avg e2e</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = avg(1+2) + avg(3)  /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95th e2e</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 95th(1+2) / 95th(3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e2e flow</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 
+1) upload files to general v2 storage via generator  service which run on F4s_v2 node pool
+2)evengrid send event to eventhub (standart, 32 partition, 1TU)
+3) 32 python appender services spread across two AKS nodes (D4s_v3, F4s_v2) get the event, read the file from storage, add additional two xml elements and save it to another storage (general v2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(*)e2e flow with keda - 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same as e2e flow with keda configured for auto-scaling the python appender service
+e.g. 00:00:36.453 -&gt; 36sec and 453ms</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:36.453</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:36.097</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.356 /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:01:25.852</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:01:25.500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.599</t>
+    </r>
+  </si>
+  <si>
+    <t>scenario: upload  3MB file</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">avg e2e </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= avg(1+2)+avg(3) /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95th e2e</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 95th(1+2) / 95th(3) with keda</t>
+    </r>
+  </si>
+  <si>
+    <t>avg (1)per second for bulk upload operation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:01:30.725</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:01:30.347</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.378 /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:02:29.154</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:02:28.883</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.967</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -505,6 +865,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -538,7 +920,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -624,15 +1006,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -675,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -732,20 +1105,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -784,13 +1150,13 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,21 +1177,12 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,20 +1208,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1180,47 +1556,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B43E74-5CC3-EB49-A9D0-22415A944AAB}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="247" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" zoomScaleNormal="247" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="33.83203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="6" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:9" ht="44" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>64</v>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:11" ht="44" x14ac:dyDescent="0.2">
+      <c r="A2" s="66" t="s">
+        <v>85</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>62</v>
@@ -1239,772 +1618,872 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="18"/>
-      <c r="D3" s="35">
+      <c r="D3" s="32">
         <v>1</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="34">
         <f>D3*100</f>
         <v>100</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="34">
         <f>D3*200</f>
         <v>200</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="34">
         <f>D3*300</f>
         <v>300</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="34">
         <f>D3*500</f>
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="55" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="72" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="26"/>
+      <c r="K4" s="63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="67"/>
+      <c r="B5" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="67"/>
       <c r="D5" s="69"/>
       <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="31" t="s">
+      <c r="F5" s="70"/>
+      <c r="G5" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
+      <c r="K5" s="63"/>
+    </row>
+    <row r="6" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+      <c r="A6" s="67"/>
+      <c r="B6" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
+      <c r="K6" s="64"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="56" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G7" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H7" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I7" s="52" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="31" t="s">
+      <c r="K7" s="64"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="56" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G8" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H8" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I8" s="52" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="32" t="s">
+      <c r="K8" s="64"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="57">
+      <c r="C9" s="26"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="53">
         <v>0.16</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G9" s="53">
         <v>0.23</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H9" s="53">
         <v>0.46</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I9" s="53">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="36">
+      <c r="K9" s="64"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="33">
         <v>2</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E10" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="20">
-        <f>D9*100</f>
+      <c r="F10" s="20">
+        <f>D10*100</f>
         <v>200</v>
       </c>
-      <c r="G9" s="20">
-        <f>D9*200</f>
+      <c r="G10" s="20">
+        <f>D10*200</f>
         <v>400</v>
       </c>
-      <c r="H9" s="20">
-        <f>D9*300</f>
+      <c r="H10" s="20">
+        <f>D10*300</f>
         <v>600</v>
       </c>
-      <c r="I9" s="20">
-        <f>D9*500</f>
+      <c r="I10" s="20">
+        <f>D10*500</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="41" t="s">
+      <c r="K10" s="64"/>
+    </row>
+    <row r="11" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C11" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="60" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G11" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H11" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I11" s="57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42" t="s">
+      <c r="K11" s="64"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="61" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G12" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I12" s="55" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="42" t="s">
+      <c r="K12" s="64"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="36"/>
+      <c r="B13" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="61" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I13" s="55" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="43" t="s">
+      <c r="K13" s="64"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="62">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="56">
         <v>0.33</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G14" s="56">
         <v>0.42</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H14" s="56">
         <v>0.94</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I14" s="56">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="35">
+      <c r="K14" s="64"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="32">
         <v>3</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E15" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="20">
-        <f>D14*100</f>
+      <c r="F15" s="20">
+        <f>D15*100</f>
         <v>300</v>
       </c>
-      <c r="G14" s="20">
-        <f>D14*200</f>
+      <c r="G15" s="20">
+        <f>D15*200</f>
         <v>600</v>
       </c>
-      <c r="H14" s="20">
-        <f>D14*300</f>
+      <c r="H15" s="20">
+        <f>D15*300</f>
         <v>900</v>
       </c>
-      <c r="I14" s="20">
-        <f>D14*500</f>
+      <c r="I15" s="20">
+        <f>D15*500</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="46" t="s">
+      <c r="K15" s="65"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="64" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G16" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H16" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I16" s="59" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="47" t="s">
+      <c r="K16" s="65"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G17" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H17" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I17" s="47" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="47" t="s">
+      <c r="K17" s="65"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G18" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H18" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I18" s="47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="48" t="s">
+      <c r="K18" s="65"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="57">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="53">
         <v>0.41</v>
       </c>
-      <c r="G18" s="57">
+      <c r="G19" s="53">
         <v>0.87</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H19" s="53">
         <v>0.95</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I19" s="53" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="44" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="K19" s="65"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="K20" s="65"/>
+    </row>
+    <row r="21" spans="1:11" ht="44" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B21" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G21" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H21" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I21" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="35">
+      <c r="K21" s="65"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="32">
         <v>1</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E22" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="37">
-        <f>D21*100</f>
+      <c r="F22" s="34">
+        <f>D22*100</f>
         <v>100</v>
       </c>
-      <c r="G21" s="37">
-        <f>D21*200</f>
+      <c r="G22" s="34">
+        <f>D22*200</f>
         <v>200</v>
       </c>
-      <c r="H21" s="37">
-        <f>D21*300</f>
+      <c r="H22" s="34">
+        <f>D22*300</f>
         <v>300</v>
       </c>
-      <c r="I21" s="37">
-        <f>D21*500</f>
+      <c r="I22" s="34">
+        <f>D22*500</f>
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="41" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="6" t="s">
+      <c r="C23" s="49"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G23" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="63" t="s">
+      <c r="H23" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="63" t="s">
+      <c r="I23" s="57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="42" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
+      <c r="B24" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="8" t="s">
+      <c r="C24" s="50"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G24" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="53" t="s">
+      <c r="H24" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I24" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="42" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="36"/>
+      <c r="B25" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="8" t="s">
+      <c r="C25" s="50"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="53" t="s">
+      <c r="G25" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="53" t="s">
+      <c r="H25" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="53" t="s">
+      <c r="I25" s="50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="43" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="36"/>
+      <c r="B26" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="9">
+      <c r="C26" s="51"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="9">
         <v>0.17</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G26" s="51">
         <v>0.3</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H26" s="51">
         <v>0.33</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I26" s="51">
         <v>0.52</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16">
         <v>2</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E27" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="20">
-        <f>D26*100</f>
+      <c r="F27" s="20">
+        <f>D27*100</f>
         <v>200</v>
       </c>
-      <c r="G26" s="20">
-        <f>D26*200</f>
+      <c r="G27" s="20">
+        <f>D27*200</f>
         <v>400</v>
       </c>
-      <c r="H26" s="20">
-        <f>D26*300</f>
+      <c r="H27" s="20">
+        <f>D27*300</f>
         <v>600</v>
       </c>
-      <c r="I26" s="20">
-        <f>D26*500</f>
+      <c r="I27" s="20">
+        <f>D27*500</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="10" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="49" t="s">
+      <c r="C28" s="46"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="65" t="s">
+      <c r="G28" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I28" s="59" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="22"/>
+      <c r="B30" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="50" t="s">
+      <c r="G30" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I30" s="47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="10" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="57">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="53">
         <v>0.2</v>
       </c>
-      <c r="G30" s="57">
+      <c r="G31" s="53">
         <v>0.48</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H31" s="13">
         <v>0.74</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I31" s="53">
         <v>0.95</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20">
         <v>3</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E32" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="20">
-        <f>D31*100</f>
+      <c r="F32" s="20">
+        <f>D32*100</f>
         <v>300</v>
       </c>
-      <c r="G31" s="20">
-        <f>D31*200</f>
+      <c r="G32" s="20">
+        <f>D32*200</f>
         <v>600</v>
       </c>
-      <c r="H31" s="20">
-        <f>D31*300</f>
+      <c r="H32" s="20">
+        <f>D32*300</f>
         <v>900</v>
       </c>
-      <c r="I31" s="20">
-        <f>D31*500</f>
+      <c r="I32" s="20">
+        <f>D32*500</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="41" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="35"/>
+      <c r="B33" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52" t="s">
+      <c r="C33" s="49"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G33" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H33" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="63" t="s">
+      <c r="I33" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="42" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="36"/>
+      <c r="B34" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G34" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H34" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="53" t="s">
+      <c r="I34" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="42" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="36"/>
+      <c r="B35" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53" t="s">
+      <c r="C35" s="50"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="53" t="s">
+      <c r="G35" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H35" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="53" t="s">
+      <c r="I35" s="50" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="43" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="37"/>
+      <c r="B36" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54">
+      <c r="C36" s="51"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51">
         <v>0.42</v>
       </c>
-      <c r="G35" s="54">
+      <c r="G36" s="51">
         <v>0.65</v>
       </c>
-      <c r="H35" s="54">
+      <c r="H36" s="51">
         <v>0.73</v>
       </c>
-      <c r="I35" s="54">
+      <c r="I36" s="51">
         <v>0.95</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B38" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D38" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="66" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="66" t="s">
+      <c r="G38" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="66" t="s">
+      <c r="H38" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="I37" s="66" t="s">
+      <c r="I38" s="60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="3">
+      <c r="C39" s="4"/>
+      <c r="D39" s="3">
         <v>1</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="7" t="s">
+      <c r="E39" s="4"/>
+      <c r="F39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K4:K21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385BE553-DAEA-2B4A-9C29-7E81AC3CC68B}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PerformanceGenerator.xlsx
+++ b/docs/PerformanceGenerator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaronprigal/sources/github/sample-azure-eventer/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF1264D-529F-2140-AD24-EB20C47814B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E54711-E76C-CE42-85C7-AB020429CBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
   <si>
     <t>300ms</t>
   </si>
@@ -775,6 +775,123 @@
       </rPr>
       <t xml:space="preserve"> /
 00:00:00.967</t>
+    </r>
+  </si>
+  <si>
+    <t>950ms</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:17.649</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:17.421</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.248 /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:35.959</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:35.742</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.317</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>per sec 
+/per process (appender service run across 3 nodes f4s_v2)</t>
     </r>
   </si>
 </sst>
@@ -1556,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B43E74-5CC3-EB49-A9D0-22415A944AAB}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" zoomScaleNormal="247" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,14 +1686,14 @@
     <col min="3" max="3" width="33.83203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>63</v>
       </c>
@@ -1590,8 +1707,9 @@
       <c r="G1" s="62"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
-    </row>
-    <row r="2" spans="1:11" ht="44" x14ac:dyDescent="0.2">
+      <c r="J1" s="62"/>
+    </row>
+    <row r="2" spans="1:12" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>85</v>
       </c>
@@ -1612,13 +1730,16 @@
         <v>67</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="18"/>
@@ -1637,15 +1758,19 @@
         <v>200</v>
       </c>
       <c r="H3" s="34">
+        <f>D3*200</f>
+        <v>200</v>
+      </c>
+      <c r="I3" s="34">
         <f>D3*300</f>
         <v>300</v>
       </c>
-      <c r="I3" s="34">
+      <c r="J3" s="34">
         <f>D3*500</f>
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="67"/>
       <c r="B4" s="68" t="s">
         <v>91</v>
@@ -1657,19 +1782,22 @@
         <v>54</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="J4" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="L4" s="63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="67"/>
       <c r="B5" s="73" t="s">
         <v>86</v>
@@ -1681,11 +1809,14 @@
       <c r="G5" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
-      <c r="K5" s="63"/>
-    </row>
-    <row r="6" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+      <c r="H5" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
+      <c r="L5" s="63"/>
+    </row>
+    <row r="6" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="67"/>
       <c r="B6" s="73" t="s">
         <v>90</v>
@@ -1697,11 +1828,14 @@
       <c r="G6" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
-      <c r="K6" s="64"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="28" t="s">
         <v>74</v>
@@ -1719,11 +1853,14 @@
         <v>36</v>
       </c>
       <c r="I7" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="64"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="64"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="28" t="s">
         <v>75</v>
@@ -1738,14 +1875,17 @@
         <v>14</v>
       </c>
       <c r="H8" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="J8" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="64"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="64"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="29" t="s">
         <v>7</v>
@@ -1757,17 +1897,20 @@
         <v>0.16</v>
       </c>
       <c r="G9" s="53">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="H9" s="53">
+        <v>0.33</v>
+      </c>
+      <c r="I9" s="53">
         <v>0.46</v>
       </c>
-      <c r="I9" s="53">
+      <c r="J9" s="53">
         <v>0.43</v>
       </c>
-      <c r="K9" s="64"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="64"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -1782,20 +1925,24 @@
         <v>200</v>
       </c>
       <c r="G10" s="20">
+        <f>C10*200</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
         <f>D10*200</f>
         <v>400</v>
       </c>
-      <c r="H10" s="20">
+      <c r="I10" s="20">
         <f>D10*300</f>
         <v>600</v>
       </c>
-      <c r="I10" s="20">
+      <c r="J10" s="20">
         <f>D10*500</f>
         <v>1000</v>
       </c>
-      <c r="K10" s="64"/>
-    </row>
-    <row r="11" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="L10" s="64"/>
+    </row>
+    <row r="11" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="38" t="s">
         <v>1</v>
@@ -1812,14 +1959,17 @@
         <v>50</v>
       </c>
       <c r="H11" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="J11" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="64"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="64"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="39" t="s">
         <v>74</v>
@@ -1834,14 +1984,17 @@
         <v>51</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="64"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="64"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="39" t="s">
         <v>75</v>
@@ -1856,14 +2009,17 @@
         <v>31</v>
       </c>
       <c r="H13" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="J13" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="64"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="64"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
       <c r="B14" s="40" t="s">
         <v>7</v>
@@ -1878,14 +2034,17 @@
         <v>0.42</v>
       </c>
       <c r="H14" s="56">
+        <v>0.42</v>
+      </c>
+      <c r="I14" s="56">
         <v>0.94</v>
       </c>
-      <c r="I14" s="56">
+      <c r="J14" s="56">
         <v>0.95</v>
       </c>
-      <c r="K14" s="64"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="64"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1900,20 +2059,24 @@
         <v>300</v>
       </c>
       <c r="G15" s="20">
+        <f>C15*200</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
         <f>D15*200</f>
         <v>600</v>
       </c>
-      <c r="H15" s="20">
+      <c r="I15" s="20">
         <f>D15*300</f>
         <v>900</v>
       </c>
-      <c r="I15" s="20">
+      <c r="J15" s="20">
         <f>D15*500</f>
         <v>1500</v>
       </c>
-      <c r="K15" s="65"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="65"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="43" t="s">
         <v>1</v>
@@ -1928,14 +2091,17 @@
         <v>23</v>
       </c>
       <c r="H16" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="J16" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="65"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="65"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
       <c r="B17" s="44" t="s">
         <v>74</v>
@@ -1955,9 +2121,12 @@
       <c r="I17" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="65"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J17" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="65"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
       <c r="B18" s="44" t="s">
         <v>75</v>
@@ -1972,14 +2141,17 @@
         <v>47</v>
       </c>
       <c r="H18" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="47" t="s">
+      <c r="J18" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="65"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="65"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="45" t="s">
         <v>11</v>
@@ -1994,14 +2166,17 @@
         <v>0.87</v>
       </c>
       <c r="H19" s="53">
+        <v>0.87</v>
+      </c>
+      <c r="I19" s="53">
         <v>0.95</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="J19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="65"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="65"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="E20" s="2"/>
@@ -2009,9 +2184,10 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="K20" s="65"/>
-    </row>
-    <row r="21" spans="1:11" ht="44" x14ac:dyDescent="0.2">
+      <c r="J20" s="2"/>
+      <c r="L20" s="65"/>
+    </row>
+    <row r="21" spans="1:12" ht="44" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>64</v>
       </c>
@@ -2032,14 +2208,17 @@
         <v>67</v>
       </c>
       <c r="H21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="J21" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K21" s="65"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="65"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="18"/>
@@ -2054,19 +2233,23 @@
         <v>100</v>
       </c>
       <c r="G22" s="34">
+        <f>C22*200</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="34">
         <f>D22*200</f>
         <v>200</v>
       </c>
-      <c r="H22" s="34">
+      <c r="I22" s="34">
         <f>D22*300</f>
         <v>300</v>
       </c>
-      <c r="I22" s="34">
+      <c r="J22" s="34">
         <f>D22*500</f>
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="38" t="s">
         <v>1</v>
@@ -2080,14 +2263,17 @@
       <c r="G23" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="57" t="s">
+      <c r="J23" s="57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="39" t="s">
         <v>74</v>
@@ -2107,8 +2293,11 @@
       <c r="I24" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J24" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
       <c r="B25" s="39" t="s">
         <v>75</v>
@@ -2123,13 +2312,16 @@
         <v>14</v>
       </c>
       <c r="H25" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="50" t="s">
+      <c r="J25" s="50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
       <c r="B26" s="40" t="s">
         <v>11</v>
@@ -2144,13 +2336,16 @@
         <v>0.3</v>
       </c>
       <c r="H26" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="I26" s="51">
         <v>0.33</v>
       </c>
-      <c r="I26" s="51">
+      <c r="J26" s="51">
         <v>0.52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -2165,19 +2360,23 @@
         <v>200</v>
       </c>
       <c r="G27" s="20">
+        <f>C27*200</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="20">
         <f>D27*200</f>
         <v>400</v>
       </c>
-      <c r="H27" s="20">
+      <c r="I27" s="20">
         <f>D27*300</f>
         <v>600</v>
       </c>
-      <c r="I27" s="20">
+      <c r="J27" s="20">
         <f>D27*500</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="10" t="s">
         <v>1</v>
@@ -2191,14 +2390,17 @@
       <c r="G28" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="J28" s="59" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29" s="10" t="s">
         <v>74</v>
@@ -2212,14 +2414,17 @@
       <c r="G29" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="47" t="s">
+      <c r="J29" s="47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="10" t="s">
         <v>75</v>
@@ -2233,14 +2438,17 @@
       <c r="G30" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="47" t="s">
+      <c r="I30" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J30" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="10" t="s">
         <v>11</v>
@@ -2254,14 +2462,17 @@
       <c r="G31" s="53">
         <v>0.48</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="53">
+        <v>0.48</v>
+      </c>
+      <c r="I31" s="13">
         <v>0.74</v>
       </c>
-      <c r="I31" s="53">
+      <c r="J31" s="53">
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -2276,19 +2487,23 @@
         <v>300</v>
       </c>
       <c r="G32" s="20">
+        <f>C32*200</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="20">
         <f>D32*200</f>
         <v>600</v>
       </c>
-      <c r="H32" s="20">
+      <c r="I32" s="20">
         <f>D32*300</f>
         <v>900</v>
       </c>
-      <c r="I32" s="20">
+      <c r="J32" s="20">
         <f>D32*500</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="38" t="s">
         <v>1</v>
@@ -2303,13 +2518,16 @@
         <v>23</v>
       </c>
       <c r="H33" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="57" t="s">
+      <c r="J33" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="36"/>
       <c r="B34" s="39" t="s">
         <v>74</v>
@@ -2327,10 +2545,13 @@
         <v>26</v>
       </c>
       <c r="I34" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="36"/>
       <c r="B35" s="39" t="s">
         <v>75</v>
@@ -2345,13 +2566,16 @@
         <v>24</v>
       </c>
       <c r="H35" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="50" t="s">
+      <c r="J35" s="50" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="37"/>
       <c r="B36" s="40" t="s">
         <v>11</v>
@@ -2366,14 +2590,17 @@
         <v>0.65</v>
       </c>
       <c r="H36" s="51">
+        <v>0.65</v>
+      </c>
+      <c r="I36" s="51">
         <v>0.73</v>
       </c>
-      <c r="I36" s="51">
+      <c r="J36" s="51">
         <v>0.95</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>6</v>
       </c>
@@ -2394,13 +2621,16 @@
         <v>58</v>
       </c>
       <c r="H38" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="I38" s="60" t="s">
+      <c r="J38" s="60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>1</v>
@@ -2417,15 +2647,18 @@
         <v>3</v>
       </c>
       <c r="H39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="J39" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K4:K21"/>
+    <mergeCell ref="L4:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/PerformanceGenerator.xlsx
+++ b/docs/PerformanceGenerator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaronprigal/sources/github/sample-azure-eventer/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E54711-E76C-CE42-85C7-AB020429CBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1372E7F-AAA9-DF4D-BD12-EBB9D756EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="171">
   <si>
     <t>300ms</t>
   </si>
@@ -447,6 +447,174 @@
 pool 2: D4s_v3</t>
   </si>
   <si>
+    <t>scenario: upload  3MB file</t>
+  </si>
+  <si>
+    <t>avg (1)per second for bulk upload operation</t>
+  </si>
+  <si>
+    <t>950ms</t>
+  </si>
+  <si>
+    <t>10 files for 1min</t>
+  </si>
+  <si>
+    <t>00:00:01.688</t>
+  </si>
+  <si>
+    <t>avg - time to reach 1st service</t>
+  </si>
+  <si>
+    <t>avg -time to complete 1st service</t>
+  </si>
+  <si>
+    <t>00:00:00.215</t>
+  </si>
+  <si>
+    <t>avg-total</t>
+  </si>
+  <si>
+    <t>00:00:01.903</t>
+  </si>
+  <si>
+    <t>00:00:02.849</t>
+  </si>
+  <si>
+    <t>95th-reach 1st service</t>
+  </si>
+  <si>
+    <t>95th-time to complete 1st service</t>
+  </si>
+  <si>
+    <t>00:00:00.317</t>
+  </si>
+  <si>
+    <t>95th-total time</t>
+  </si>
+  <si>
+    <t>00:00:03.088</t>
+  </si>
+  <si>
+    <t>time to complete service</t>
+  </si>
+  <si>
+    <t>~300ms</t>
+  </si>
+  <si>
+    <t>3*32</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>unprocessed</t>
+  </si>
+  <si>
+    <t>32 files for 1min</t>
+  </si>
+  <si>
+    <t>00:00:03.919</t>
+  </si>
+  <si>
+    <t>00:00:00.211</t>
+  </si>
+  <si>
+    <t>00:00:04.131</t>
+  </si>
+  <si>
+    <t>00:00:07.036</t>
+  </si>
+  <si>
+    <t>00:00:00.289</t>
+  </si>
+  <si>
+    <t>00:00:07.268</t>
+  </si>
+  <si>
+    <t>20 files for 1min</t>
+  </si>
+  <si>
+    <t>00:00:02.808</t>
+  </si>
+  <si>
+    <t>00:00:00.255</t>
+  </si>
+  <si>
+    <t>00:00:03.033</t>
+  </si>
+  <si>
+    <t>00:00:04.881</t>
+  </si>
+  <si>
+    <t>00:00:00.328</t>
+  </si>
+  <si>
+    <t>00:00:05.122</t>
+  </si>
+  <si>
+    <t>with 3nodes</t>
+  </si>
+  <si>
+    <t>00:00:01.599</t>
+  </si>
+  <si>
+    <t>00:00:00.209</t>
+  </si>
+  <si>
+    <t>00:00:01.808</t>
+  </si>
+  <si>
+    <t>00:00:02.677</t>
+  </si>
+  <si>
+    <t>00:00:00.329</t>
+  </si>
+  <si>
+    <t>00:00:02.878</t>
+  </si>
+  <si>
+    <t>200file per sec/1min</t>
+  </si>
+  <si>
+    <t>premium 1cu</t>
+  </si>
+  <si>
+    <t>100pods</t>
+  </si>
+  <si>
+    <t>90th-total time</t>
+  </si>
+  <si>
+    <t>90th-time to complete 1st service</t>
+  </si>
+  <si>
+    <t>90th-reach 1st service</t>
+  </si>
+  <si>
+    <t>10nodes</t>
+  </si>
+  <si>
+    <t>00:00:05.279</t>
+  </si>
+  <si>
+    <t>00:00:00.220</t>
+  </si>
+  <si>
+    <t>00:00:06.143</t>
+  </si>
+  <si>
+    <t>00:00:12.077</t>
+  </si>
+  <si>
+    <t>00:00:00.284</t>
+  </si>
+  <si>
+    <t>00:00:12.307</t>
+  </si>
+  <si>
+    <r>
+      <t>(*)</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -457,7 +625,62 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>avg e2e</t>
+      <t>e2e flow</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 
+1) upload files to general v2 storage via generator  service which run on F4s_v2 node pool
+2)evengrid send event to eventhub
+3) 32 python appender services spread across 3 AKS nodes (F4s_v2) get the event, read the file from storage, add additional two xml elements and save it to another storage (general v2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(*)e2e flow with keda - 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same as e2e flow with keda configured for auto-scaling the python appender service
+e.g. 00:00:36.453 -&gt; 36sec and 453ms</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for single file
+avg </t>
     </r>
     <r>
       <rPr>
@@ -481,7 +704,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>95th e2e</t>
+      <t xml:space="preserve">90th </t>
     </r>
     <r>
       <rPr>
@@ -492,13 +715,1063 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> / 95th(1+2) / 95th(3)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(*)</t>
-    </r>
+      <t xml:space="preserve"> / 90th(1+2) / 90th(3)
+(10:54:29.351 - 10:56:44.434)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:26.091</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:25.829</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.261 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:46.508</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:46.254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.344</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> for entire flow for all files</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:01:26.872</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:01:26.629</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.242 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:02:35.401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:02:35:268</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.313</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:24.414</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:24.156</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.255
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:44.753</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:44.484</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.333</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:01:36.776</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:01:36.517</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.259 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:02:57.413</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:02:57:199</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.344</t>
+    </r>
+  </si>
+  <si>
+    <t>02min15sec</t>
+  </si>
+  <si>
+    <t>08min06sec</t>
+  </si>
+  <si>
+    <t>09min54sec</t>
+  </si>
+  <si>
+    <t>02min16sec</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:18.045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:17.826</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.218 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:31.280</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:31.046</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.280</t>
+    </r>
+  </si>
+  <si>
+    <t>01min56sec</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>per sec 
+/per process</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> for 60sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run across</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> 3 nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> f4s_v2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventhub 3TU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">per sec 
+/per process </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>for 60sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run across </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>10 nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> f4s_v2) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventub 1TU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>per sec 
+/per process</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> for 60sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run across </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3 nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> f4s_v2) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventub 1TU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>per sec 
+/per process</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> for 300sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run acros</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>s 3 nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> f4s_v2) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventub 1TU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>per sec 
+/per process</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> for 300sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run across </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3 nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> f4s_v2) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventhub 3TU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>per sec 
+/per process</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> for 300sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run acros</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>s 10 nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> f4s_v2) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventub 1TU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:57.198</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:56.984</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.214 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:01:45.259</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:01:45:045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.267</t>
+    </r>
+  </si>
+  <si>
+    <t>05min05sec</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:01:33.111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:01:32.888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.222
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:02:33.391</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:02:33:180</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.283</t>
+    </r>
+  </si>
+  <si>
+    <t>08min56sec</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -509,7 +1782,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>e2e flow</t>
+      <t xml:space="preserve">with KEDA for single file
+avg e2e </t>
     </r>
     <r>
       <rPr>
@@ -520,10 +1794,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 
-1) upload files to general v2 storage via generator  service which run on F4s_v2 node pool
-2)evengrid send event to eventhub (standart, 32 partition, 1TU)
-3) 32 python appender services spread across two AKS nodes (D4s_v3, F4s_v2) get the event, read the file from storage, add additional two xml elements and save it to another storage (general v2)
+      <t xml:space="preserve">= avg(1+2)+avg(3) /
 </t>
     </r>
     <r>
@@ -536,8 +1807,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(*)e2e flow with keda - 
-</t>
+      <t>95th e2e</t>
     </r>
     <r>
       <rPr>
@@ -548,8 +1818,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>same as e2e flow with keda configured for auto-scaling the python appender service
-e.g. 00:00:36.453 -&gt; 36sec and 453ms</t>
+      <t xml:space="preserve"> / 95th(1+2) / 95th(3) </t>
     </r>
   </si>
   <si>
@@ -562,7 +1831,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00:00:36.453</t>
+      <t>00:02:03.830</t>
     </r>
     <r>
       <rPr>
@@ -581,7 +1850,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>00:00:36.097</t>
+      <t>00:02:03.582</t>
     </r>
     <r>
       <rPr>
@@ -592,7 +1861,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">+
-00:00:00.356 /
+00:00:00.248
 </t>
     </r>
     <r>
@@ -604,7 +1873,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00:01:25.852</t>
+      <t>00:03:07.336</t>
     </r>
     <r>
       <rPr>
@@ -623,7 +1892,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>00:01:25.500</t>
+      <t>00:03:07:048</t>
     </r>
     <r>
       <rPr>
@@ -634,75 +1903,23 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> /
-00:00:00.599</t>
-    </r>
-  </si>
-  <si>
-    <t>scenario: upload  3MB file</t>
+00:00:00.307</t>
+    </r>
+  </si>
+  <si>
+    <t>09min43sec</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">avg e2e </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= avg(1+2)+avg(3) /
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>95th e2e</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / 95th(1+2) / 95th(3) with keda</t>
-    </r>
-  </si>
-  <si>
-    <t>avg (1)per second for bulk upload operation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00:01:30.725</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:01:11.070</t>
     </r>
     <r>
       <rPr>
@@ -721,7 +1938,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>00:01:30.347</t>
+      <t>00:01:10.751</t>
     </r>
     <r>
       <rPr>
@@ -732,7 +1949,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">+
-00:00:00.378 /
+00:00:00.318
 </t>
     </r>
     <r>
@@ -744,7 +1961,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00:02:29.154</t>
+      <t>00:01:36.897</t>
     </r>
     <r>
       <rPr>
@@ -763,7 +1980,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>00:02:28.883</t>
+      <t>00:01:36.653</t>
     </r>
     <r>
       <rPr>
@@ -774,11 +1991,11 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> /
-00:00:00.967</t>
-    </r>
-  </si>
-  <si>
-    <t>950ms</t>
+00:00:00.402</t>
+    </r>
+  </si>
+  <si>
+    <t>02min57sec</t>
   </si>
   <si>
     <r>
@@ -790,7 +2007,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00:00:17.649</t>
+      <t>00:01:05.183</t>
     </r>
     <r>
       <rPr>
@@ -809,7 +2026,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>00:00:17.421</t>
+      <t>00:01:04.863</t>
     </r>
     <r>
       <rPr>
@@ -820,7 +2037,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">+
-00:00:00.248 /
+00:00:00.319
 </t>
     </r>
     <r>
@@ -832,7 +2049,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00:00:35.959</t>
+      <t>00:01:29.228</t>
     </r>
     <r>
       <rPr>
@@ -851,7 +2068,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>00:00:35.742</t>
+      <t>00:01:29.468</t>
     </r>
     <r>
       <rPr>
@@ -862,44 +2079,18 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> /
-00:00:00.317</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>200 files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>per sec 
-/per process (appender service run across 3 nodes f4s_v2)</t>
-    </r>
+00:00:00.439</t>
+    </r>
+  </si>
+  <si>
+    <t>02min58sec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1002,6 +2193,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -1165,7 +2368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1325,15 +2528,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1357,6 +2551,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1673,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B43E74-5CC3-EB49-A9D0-22415A944AAB}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" zoomScaleNormal="247" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="116" zoomScaleNormal="247" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1686,14 +2894,16 @@
     <col min="3" max="3" width="33.83203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="7" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>63</v>
       </c>
@@ -1708,16 +2918,21 @@
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
-    </row>
-    <row r="2" spans="1:12" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+    </row>
+    <row r="2" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="63" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>62</v>
@@ -1727,19 +2942,32 @@
         <v>68</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="I2" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="18"/>
@@ -1762,903 +2990,1164 @@
         <v>200</v>
       </c>
       <c r="I3" s="34">
+        <f>D3*200</f>
+        <v>200</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34">
+        <f>D3*200</f>
+        <v>200</v>
+      </c>
+      <c r="L3" s="34">
+        <f>D3*200</f>
+        <v>200</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34">
         <f>D3*300</f>
         <v>300</v>
       </c>
-      <c r="J3" s="34">
+      <c r="O3" s="34">
         <f>D3*500</f>
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="71" t="s">
+      <c r="G4" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="O4" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
-      <c r="L5" s="63"/>
-    </row>
-    <row r="6" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
-      <c r="B6" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
-      <c r="L6" s="64"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="28" t="s">
+      <c r="Q4" s="74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="64"/>
+      <c r="B5" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="68"/>
+      <c r="O5" s="69"/>
+      <c r="Q5" s="74"/>
+    </row>
+    <row r="6" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="64"/>
+      <c r="B6" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="L6" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="N6" s="68"/>
+      <c r="O6" s="69"/>
+      <c r="Q6" s="74"/>
+    </row>
+    <row r="7" spans="1:17" ht="112" x14ac:dyDescent="0.2">
+      <c r="A7" s="64"/>
+      <c r="B7" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="68"/>
+      <c r="O7" s="69"/>
+      <c r="Q7" s="75"/>
+    </row>
+    <row r="8" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="64"/>
+      <c r="B8" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="N8" s="68"/>
+      <c r="O8" s="69"/>
+      <c r="Q8" s="75"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="52" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="O9" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="64"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="28" t="s">
+      <c r="Q9" s="75"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="52" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G10" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H10" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="O10" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="64"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="29" t="s">
+      <c r="Q10" s="75"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="53">
+      <c r="C11" s="26"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="53">
         <v>0.16</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G11" s="53">
         <v>0.33</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H11" s="53">
         <v>0.33</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53">
         <v>0.46</v>
       </c>
-      <c r="J9" s="53">
+      <c r="O11" s="53">
         <v>0.43</v>
       </c>
-      <c r="L9" s="64"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="33">
+      <c r="Q11" s="75"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="33">
         <v>2</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="20">
-        <f>D10*100</f>
+      <c r="F12" s="20">
+        <f>D12*100</f>
         <v>200</v>
       </c>
-      <c r="G10" s="20">
-        <f>C10*200</f>
+      <c r="G12" s="20">
+        <f>D12*200</f>
+        <v>400</v>
+      </c>
+      <c r="H12" s="20">
+        <f>D12*200</f>
+        <v>400</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20">
+        <f>D12*300</f>
+        <v>600</v>
+      </c>
+      <c r="O12" s="20">
+        <f>D12*500</f>
+        <v>1000</v>
+      </c>
+      <c r="Q12" s="75"/>
+    </row>
+    <row r="13" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="75"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="36"/>
+      <c r="B14" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="75"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+      <c r="B15" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="75"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="37"/>
+      <c r="B16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="56">
+        <v>0.33</v>
+      </c>
+      <c r="G16" s="56">
+        <v>0.42</v>
+      </c>
+      <c r="H16" s="56">
+        <v>0.42</v>
+      </c>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56">
+        <v>0.94</v>
+      </c>
+      <c r="O16" s="56">
+        <v>0.95</v>
+      </c>
+      <c r="Q16" s="75"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="32">
+        <v>3</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="20">
+        <f>D17*100</f>
+        <v>300</v>
+      </c>
+      <c r="G17" s="20">
+        <f>C17*200</f>
         <v>0</v>
       </c>
-      <c r="H10" s="20">
-        <f>D10*200</f>
+      <c r="H17" s="20">
+        <f>D17*200</f>
+        <v>600</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20">
+        <f>D17*300</f>
+        <v>900</v>
+      </c>
+      <c r="O17" s="20">
+        <f>D17*500</f>
+        <v>1500</v>
+      </c>
+      <c r="Q17" s="76"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" s="76"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="76"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" s="76"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="53">
+        <v>0.41</v>
+      </c>
+      <c r="G21" s="53">
+        <v>0.87</v>
+      </c>
+      <c r="H21" s="53">
+        <v>0.87</v>
+      </c>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53">
+        <v>0.95</v>
+      </c>
+      <c r="O21" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q21" s="76"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="Q22" s="76"/>
+    </row>
+    <row r="23" spans="1:17" ht="44" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="76"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="34">
+        <f>D24*100</f>
+        <v>100</v>
+      </c>
+      <c r="G24" s="34">
+        <f>C24*200</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="34">
+        <f>D24*200</f>
+        <v>200</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34">
+        <f>D24*300</f>
+        <v>300</v>
+      </c>
+      <c r="O24" s="34">
+        <f>D24*500</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="36"/>
+      <c r="B26" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
+      <c r="B27" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="O27" s="50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="36"/>
+      <c r="B28" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="G28" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="H28" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51">
+        <v>0.33</v>
+      </c>
+      <c r="O28" s="51">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16">
+        <v>2</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="20">
+        <f>D29*100</f>
+        <v>200</v>
+      </c>
+      <c r="G29" s="20">
+        <f>C29*200</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="20">
+        <f>D29*200</f>
         <v>400</v>
       </c>
-      <c r="I10" s="20">
-        <f>D10*300</f>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20">
+        <f>D29*300</f>
         <v>600</v>
       </c>
-      <c r="J10" s="20">
-        <f>D10*500</f>
+      <c r="O29" s="20">
+        <f>D29*500</f>
         <v>1000</v>
       </c>
-      <c r="L10" s="64"/>
-    </row>
-    <row r="11" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="38" t="s">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" s="64"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="39" t="s">
+      <c r="C30" s="46"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="B31" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="64"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="39" t="s">
+      <c r="C31" s="47"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="55" t="s">
+      <c r="C32" s="47"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="G33" s="53">
+        <v>0.48</v>
+      </c>
+      <c r="H33" s="53">
+        <v>0.48</v>
+      </c>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="13">
+        <v>0.74</v>
+      </c>
+      <c r="O33" s="53">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20">
+        <v>3</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="20">
+        <f>D34*100</f>
+        <v>300</v>
+      </c>
+      <c r="G34" s="20">
+        <f>C34*200</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="20">
+        <f>D34*200</f>
+        <v>600</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20">
+        <f>D34*300</f>
+        <v>900</v>
+      </c>
+      <c r="O34" s="20">
+        <f>D34*500</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="36"/>
+      <c r="B36" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="36"/>
+      <c r="B37" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="50"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="64"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="56">
-        <v>0.33</v>
-      </c>
-      <c r="G14" s="56">
+      <c r="G37" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="37"/>
+      <c r="B38" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51">
         <v>0.42</v>
       </c>
-      <c r="H14" s="56">
-        <v>0.42</v>
-      </c>
-      <c r="I14" s="56">
-        <v>0.94</v>
-      </c>
-      <c r="J14" s="56">
+      <c r="G38" s="51">
+        <v>0.65</v>
+      </c>
+      <c r="H38" s="51">
+        <v>0.65</v>
+      </c>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51">
+        <v>0.73</v>
+      </c>
+      <c r="O38" s="51">
         <v>0.95</v>
       </c>
-      <c r="L14" s="64"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="32">
+    </row>
+    <row r="39" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="O40" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="20">
-        <f>D15*100</f>
-        <v>300</v>
-      </c>
-      <c r="G15" s="20">
-        <f>C15*200</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="20">
-        <f>D15*200</f>
-        <v>600</v>
-      </c>
-      <c r="I15" s="20">
-        <f>D15*300</f>
-        <v>900</v>
-      </c>
-      <c r="J15" s="20">
-        <f>D15*500</f>
-        <v>1500</v>
-      </c>
-      <c r="L15" s="65"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="65"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="65"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="65"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="53">
-        <v>0.41</v>
-      </c>
-      <c r="G19" s="53">
-        <v>0.87</v>
-      </c>
-      <c r="H19" s="53">
-        <v>0.87</v>
-      </c>
-      <c r="I19" s="53">
-        <v>0.95</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="65"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="L20" s="65"/>
-    </row>
-    <row r="21" spans="1:12" ht="44" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" s="65"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="32">
-        <v>1</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="34">
-        <f>D22*100</f>
-        <v>100</v>
-      </c>
-      <c r="G22" s="34">
-        <f>C22*200</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="34">
-        <f>D22*200</f>
-        <v>200</v>
-      </c>
-      <c r="I22" s="34">
-        <f>D22*300</f>
-        <v>300</v>
-      </c>
-      <c r="J22" s="34">
-        <f>D22*500</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="G26" s="51">
-        <v>0.3</v>
-      </c>
-      <c r="H26" s="51">
-        <v>0.3</v>
-      </c>
-      <c r="I26" s="51">
-        <v>0.33</v>
-      </c>
-      <c r="J26" s="51">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16">
-        <v>2</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="20">
-        <f>D27*100</f>
-        <v>200</v>
-      </c>
-      <c r="G27" s="20">
-        <f>C27*200</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="20">
-        <f>D27*200</f>
-        <v>400</v>
-      </c>
-      <c r="I27" s="20">
-        <f>D27*300</f>
-        <v>600</v>
-      </c>
-      <c r="J27" s="20">
-        <f>D27*500</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="53">
-        <v>0.2</v>
-      </c>
-      <c r="G31" s="53">
-        <v>0.48</v>
-      </c>
-      <c r="H31" s="53">
-        <v>0.48</v>
-      </c>
-      <c r="I31" s="13">
-        <v>0.74</v>
-      </c>
-      <c r="J31" s="53">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20">
+      <c r="H41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="20">
-        <f>D32*100</f>
-        <v>300</v>
-      </c>
-      <c r="G32" s="20">
-        <f>C32*200</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="20">
-        <f>D32*200</f>
-        <v>600</v>
-      </c>
-      <c r="I32" s="20">
-        <f>D32*300</f>
-        <v>900</v>
-      </c>
-      <c r="J32" s="20">
-        <f>D32*500</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
-      <c r="B33" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" s="50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="50" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51">
-        <v>0.42</v>
-      </c>
-      <c r="G36" s="51">
-        <v>0.65</v>
-      </c>
-      <c r="H36" s="51">
-        <v>0.65</v>
-      </c>
-      <c r="I36" s="51">
-        <v>0.73</v>
-      </c>
-      <c r="J36" s="51">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="I38" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" s="60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I39" s="7" t="s">
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="O41" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L4:L21"/>
+    <mergeCell ref="Q4:Q23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2667,25 +4156,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385BE553-DAEA-2B4A-9C29-7E81AC3CC68B}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>77</v>
       </c>
@@ -2693,7 +4186,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -2704,19 +4197,808 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="73"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29">
+        <v>96</v>
+      </c>
+      <c r="F29">
+        <v>104</v>
+      </c>
+      <c r="H29">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>96</v>
+      </c>
+      <c r="F30">
+        <f>F29+H29</f>
+        <v>208</v>
+      </c>
+      <c r="H30">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>96</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F89" si="0">F30+H30</f>
+        <v>312</v>
+      </c>
+      <c r="H31">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
+      <c r="H32">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="H33">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+      <c r="H34">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>728</v>
+      </c>
+      <c r="H35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>832</v>
+      </c>
+      <c r="H36">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>936</v>
+      </c>
+      <c r="H37">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1040</v>
+      </c>
+      <c r="H38">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1144</v>
+      </c>
+      <c r="H39">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1248</v>
+      </c>
+      <c r="H40">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1352</v>
+      </c>
+      <c r="H41">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1456</v>
+      </c>
+      <c r="H42">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1560</v>
+      </c>
+      <c r="H43">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1664</v>
+      </c>
+      <c r="H44">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1768</v>
+      </c>
+      <c r="H45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1872</v>
+      </c>
+      <c r="H46">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1976</v>
+      </c>
+      <c r="H47">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>2080</v>
+      </c>
+      <c r="H48">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>2184</v>
+      </c>
+      <c r="H49">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>2288</v>
+      </c>
+      <c r="H50">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>2392</v>
+      </c>
+      <c r="H51">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>2496</v>
+      </c>
+      <c r="H52">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="H53">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>2704</v>
+      </c>
+      <c r="H54">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>2808</v>
+      </c>
+      <c r="H55">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>2912</v>
+      </c>
+      <c r="H56">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>3016</v>
+      </c>
+      <c r="H57">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>3120</v>
+      </c>
+      <c r="H58">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>3224</v>
+      </c>
+      <c r="H59">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>3328</v>
+      </c>
+      <c r="H60">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>3432</v>
+      </c>
+      <c r="H61">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>3536</v>
+      </c>
+      <c r="H62">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>3640</v>
+      </c>
+      <c r="H63">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>3744</v>
+      </c>
+      <c r="H64">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>3848</v>
+      </c>
+      <c r="H65">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>3952</v>
+      </c>
+      <c r="H66">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>4056</v>
+      </c>
+      <c r="H67">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>4160</v>
+      </c>
+      <c r="H68">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>4264</v>
+      </c>
+      <c r="H69">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <f t="shared" si="0"/>
+        <v>4368</v>
+      </c>
+      <c r="H70">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <f t="shared" si="0"/>
+        <v>4472</v>
+      </c>
+      <c r="H71">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <f t="shared" si="0"/>
+        <v>4576</v>
+      </c>
+      <c r="H72">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <f t="shared" si="0"/>
+        <v>4680</v>
+      </c>
+      <c r="H73">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <f t="shared" si="0"/>
+        <v>4784</v>
+      </c>
+      <c r="H74">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <f t="shared" si="0"/>
+        <v>4888</v>
+      </c>
+      <c r="H75">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <f t="shared" si="0"/>
+        <v>4992</v>
+      </c>
+      <c r="H76">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <f t="shared" si="0"/>
+        <v>5096</v>
+      </c>
+      <c r="H77">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <f t="shared" si="0"/>
+        <v>5200</v>
+      </c>
+      <c r="H78">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <f t="shared" si="0"/>
+        <v>5304</v>
+      </c>
+      <c r="H79">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <f t="shared" si="0"/>
+        <v>5408</v>
+      </c>
+      <c r="H80">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <f t="shared" si="0"/>
+        <v>5512</v>
+      </c>
+      <c r="H81">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <f t="shared" si="0"/>
+        <v>5616</v>
+      </c>
+      <c r="H82">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <f t="shared" si="0"/>
+        <v>5720</v>
+      </c>
+      <c r="H83">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <f t="shared" si="0"/>
+        <v>5824</v>
+      </c>
+      <c r="H84">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <f t="shared" si="0"/>
+        <v>5928</v>
+      </c>
+      <c r="H85">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <f t="shared" si="0"/>
+        <v>6032</v>
+      </c>
+      <c r="H86">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <f t="shared" si="0"/>
+        <v>6136</v>
+      </c>
+      <c r="H87">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <f t="shared" si="0"/>
+        <v>6240</v>
+      </c>
+      <c r="H88">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <f t="shared" si="0"/>
+        <v>6344</v>
+      </c>
+      <c r="H89">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PerformanceGenerator.xlsx
+++ b/docs/PerformanceGenerator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaronprigal/sources/github/sample-azure-eventer/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1372E7F-AAA9-DF4D-BD12-EBB9D756EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C30C5D-030C-9240-890A-008F427613E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="206">
   <si>
     <t>300ms</t>
   </si>
@@ -1165,439 +1165,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>200 files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>per sec 
-/per process</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> for 60sec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (appender service run across</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> 3 nodes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> f4s_v2)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>eventhub 3TU</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>200 files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">per sec 
-/per process </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>for 60sec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (appender service run across </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>10 nodes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> f4s_v2) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>eventub 1TU</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>200 files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>per sec 
-/per process</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> for 60sec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (appender service run across </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>3 nodes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> f4s_v2) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>eventub 1TU</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>200 files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>per sec 
-/per process</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> for 300sec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (appender service run acros</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>s 3 nodes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> f4s_v2) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>eventub 1TU</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>200 files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>per sec 
-/per process</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> for 300sec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (appender service run across </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>3 nodes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> f4s_v2) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>eventhub 3TU</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>200 files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>per sec 
-/per process</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> for 300sec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (appender service run acros</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>s 10 nodes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> f4s_v2) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>eventub 1TU</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1681,9 +1248,6 @@
     </r>
   </si>
   <si>
-    <t>05min05sec</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1775,56 +1339,6 @@
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">with KEDA for single file
-avg e2e </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= avg(1+2)+avg(3) /
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>95th e2e</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / 95th(1+2) / 95th(3) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -2084,6 +1598,1530 @@
   </si>
   <si>
     <t>02min58sec</t>
+  </si>
+  <si>
+    <t>no need</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">per sec 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>for 60sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>~10 pods per node - 3 nodes f4s_v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventhub STD 3TU - 32 partitions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">per sec 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>for 60sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>~10 pods per node - 3 nodes f4s_v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventub STD 1TU - 32 partitions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">per sec 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>for 60sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>~10 pods per node - 10 nodes f4s_v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventhub PRM 1CU - 100 partitions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">per sec 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>for 60sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>~3 pods per node - 10 nodes f4s_v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventub 1TU - 32 partitions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:06.089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:05.882</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.207
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:11.648</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:11.435</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.263</t>
+    </r>
+  </si>
+  <si>
+    <t>01min14sec</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">per sec 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>for 60sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>~3 pods per node - 33 nodes f4s_v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventub 1CU - 100 partitions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:26.704</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:26.323</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.380
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:44.507</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:44.150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.702</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">with KEDA (5 unprocessed message, polling interval 5sec) for single file
+avg e2e </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= avg(1+2)+avg(3) /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95th e2e</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 95th(1+2) / 95th(3) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">per sec 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>for 300sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>~3 pods per node - 33 nodes f4s_v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventub 1CU - 100 partitions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">per sec 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>for 300sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>~10 pods per node - 10 nodes f4s_v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventub 1CU - 100 partitions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">per sec 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> for 300sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>~10 pods per node - 3 nodes f4s_v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventhub 3TU - 32 partitions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">per sec 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> for 300sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ~10 pods per node - 3 nodes f4s_v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventub 1TU - 32 partitions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>200 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">per sec 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>for 300sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>~3 pods per node - 10 nodes f4s_v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventub 1TU - 32 partitions</t>
+    </r>
+  </si>
+  <si>
+    <t>02min07sec</t>
+  </si>
+  <si>
+    <t>05min25sec</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:19.507</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:19.247</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.260
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:55.370</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:55:048</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.330</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:05.682</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:05.482</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.200
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:11.363</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:11:147</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.253</t>
+    </r>
+  </si>
+  <si>
+    <t>05min21sec</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:05.732</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:05.529</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.202
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:11.251</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:11.044</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.258</t>
+    </r>
+  </si>
+  <si>
+    <t>01min17sec</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:46.200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:45.716</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.200
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:01:11.185</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:01:10:948</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.403</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:18.809</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:01:18.572</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.237
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:56.019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:55:805</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.283</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:06.364</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:06.157</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+
+00:00:00.206
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:12.389</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>00:00:12:178</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+00:00:00.270</t>
+    </r>
+  </si>
+  <si>
+    <t>05min18sec</t>
+  </si>
+  <si>
+    <t>05min24sec</t>
+  </si>
+  <si>
+    <t>5nodes</t>
+  </si>
+  <si>
+    <t>00:00:14.897</t>
+  </si>
+  <si>
+    <t>00:00:00.308</t>
+  </si>
+  <si>
+    <t>00:00:15.205</t>
+  </si>
+  <si>
+    <t>00:00:27.655</t>
+  </si>
+  <si>
+    <t>00:00:00.440</t>
+  </si>
+  <si>
+    <t>00:00:27.897</t>
+  </si>
+  <si>
+    <t>200file per sec/20min</t>
+  </si>
+  <si>
+    <t>00:00:08.395</t>
+  </si>
+  <si>
+    <t>00:00:00.233</t>
+  </si>
+  <si>
+    <t>00:00:08.629</t>
+  </si>
+  <si>
+    <t>00:00:14.109</t>
+  </si>
+  <si>
+    <t>00:00:00.302</t>
+  </si>
+  <si>
+    <t>00:00:14.350</t>
+  </si>
+  <si>
+    <t>e2e for entire flow</t>
+  </si>
+  <si>
+    <t>20min32sec</t>
   </si>
 </sst>
 </file>
@@ -2208,7 +3246,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2236,6 +3274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,7 +3412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2555,6 +3599,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2564,7 +3611,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2881,29 +3934,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B43E74-5CC3-EB49-A9D0-22415A944AAB}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="116" zoomScaleNormal="247" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="116" zoomScaleNormal="247" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="14.83203125" customWidth="1"/>
     <col min="10" max="10" width="5.33203125" customWidth="1"/>
-    <col min="11" max="13" width="14.83203125" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="11" max="12" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" customWidth="1"/>
+    <col min="14" max="16" width="14.83203125" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" customWidth="1"/>
+    <col min="18" max="19" width="14.83203125" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" customWidth="1"/>
+    <col min="23" max="23" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>63</v>
       </c>
@@ -2923,51 +3981,71 @@
       <c r="M1" s="62"/>
       <c r="N1" s="62"/>
       <c r="O1" s="62"/>
-    </row>
-    <row r="2" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+    </row>
+    <row r="2" spans="1:23" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="63" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="79" t="s">
         <v>62</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>155</v>
+      <c r="G2" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>166</v>
       </c>
       <c r="J2" s="17"/>
       <c r="K2" s="17" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>159</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M2" s="17"/>
       <c r="N2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="U2" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="18"/>
@@ -3004,15 +4082,36 @@
       </c>
       <c r="M3" s="34"/>
       <c r="N3" s="34">
+        <f>D3*200</f>
+        <v>200</v>
+      </c>
+      <c r="O3" s="34">
+        <f>D3*200</f>
+        <v>200</v>
+      </c>
+      <c r="P3" s="34">
+        <f>D3*200</f>
+        <v>200</v>
+      </c>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34">
+        <f>D3*200</f>
+        <v>200</v>
+      </c>
+      <c r="S3" s="34">
+        <f>D3*200</f>
+        <v>200</v>
+      </c>
+      <c r="T3" s="34">
         <f>D3*300</f>
         <v>300</v>
       </c>
-      <c r="O3" s="34">
+      <c r="U3" s="34">
         <f>D3*500</f>
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="64"/>
       <c r="B4" s="65" t="s">
         <v>87</v>
@@ -3026,25 +4125,29 @@
       <c r="G4" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="67" t="s">
-        <v>88</v>
-      </c>
+      <c r="H4" s="67"/>
       <c r="I4" s="67"/>
       <c r="J4" s="67"/>
       <c r="K4" s="67"/>
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="U4" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="W4" s="75" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="64"/>
       <c r="B5" s="70" t="s">
         <v>142</v>
@@ -3060,25 +4163,39 @@
         <v>146</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="J5" s="71"/>
       <c r="K5" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="O5" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="M5" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="N5" s="68"/>
-      <c r="O5" s="69"/>
-      <c r="Q5" s="74"/>
-    </row>
-    <row r="6" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="S5" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="T5" s="68"/>
+      <c r="U5" s="69"/>
+      <c r="W5" s="75"/>
+    </row>
+    <row r="6" spans="1:23" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="64"/>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="74" t="s">
         <v>144</v>
       </c>
       <c r="C6" s="64"/>
@@ -3092,53 +4209,83 @@
         <v>151</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="J6" s="71"/>
       <c r="K6" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="L6" s="71" t="s">
+      <c r="O6" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="M6" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="N6" s="68"/>
-      <c r="O6" s="69"/>
-      <c r="Q6" s="74"/>
-    </row>
-    <row r="7" spans="1:17" ht="112" x14ac:dyDescent="0.2">
+      <c r="P6" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="T6" s="68"/>
+      <c r="U6" s="69"/>
+      <c r="W6" s="75"/>
+    </row>
+    <row r="7" spans="1:23" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" s="64"/>
       <c r="B7" s="70" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="66"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="71"/>
+        <v>159</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>163</v>
+      </c>
       <c r="I7" s="71" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J7" s="71"/>
       <c r="K7" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="69"/>
-      <c r="Q7" s="75"/>
-    </row>
-    <row r="8" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="L7" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="O7" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="S7" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="T7" s="68"/>
+      <c r="U7" s="69"/>
+      <c r="W7" s="76"/>
+    </row>
+    <row r="8" spans="1:23" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="64"/>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="74" t="s">
         <v>144</v>
       </c>
       <c r="C8" s="64"/>
@@ -3146,25 +4293,43 @@
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
       <c r="G8" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="71"/>
+        <v>160</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>163</v>
+      </c>
       <c r="I8" s="71" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="J8" s="71"/>
       <c r="K8" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="L8" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="O8" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="N8" s="68"/>
-      <c r="O8" s="69"/>
-      <c r="Q8" s="75"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P8" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="S8" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="T8" s="68"/>
+      <c r="U8" s="69"/>
+      <c r="W8" s="76"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
       <c r="B9" s="28" t="s">
         <v>74</v>
@@ -3178,23 +4343,27 @@
       <c r="G9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="52" t="s">
-        <v>36</v>
-      </c>
+      <c r="H9" s="52"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
       <c r="L9" s="52"/>
       <c r="M9" s="52"/>
-      <c r="N9" s="52" t="s">
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="52" t="s">
+      <c r="U9" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="75"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W9" s="76"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="28" t="s">
         <v>75</v>
@@ -3208,23 +4377,27 @@
       <c r="G10" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="52" t="s">
-        <v>14</v>
-      </c>
+      <c r="H10" s="52"/>
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
       <c r="L10" s="52"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="52" t="s">
+      <c r="U10" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="75"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W10" s="76"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="29" t="s">
         <v>7</v>
@@ -3238,23 +4411,27 @@
       <c r="G11" s="53">
         <v>0.33</v>
       </c>
-      <c r="H11" s="53">
-        <v>0.33</v>
-      </c>
+      <c r="H11" s="53"/>
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
       <c r="M11" s="53"/>
-      <c r="N11" s="53">
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53">
         <v>0.46</v>
       </c>
-      <c r="O11" s="53">
+      <c r="U11" s="53">
         <v>0.43</v>
       </c>
-      <c r="Q11" s="75"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W11" s="76"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -3272,26 +4449,29 @@
         <f>D12*200</f>
         <v>400</v>
       </c>
-      <c r="H12" s="20">
-        <f>D12*200</f>
-        <v>400</v>
-      </c>
+      <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
-      <c r="N12" s="20">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20">
         <f>D12*300</f>
         <v>600</v>
       </c>
-      <c r="O12" s="20">
+      <c r="U12" s="20">
         <f>D12*500</f>
         <v>1000</v>
       </c>
-      <c r="Q12" s="75"/>
-    </row>
-    <row r="13" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="W12" s="76"/>
+    </row>
+    <row r="13" spans="1:23" ht="92" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="38" t="s">
         <v>1</v>
@@ -3307,23 +4487,27 @@
       <c r="G13" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="57" t="s">
-        <v>50</v>
-      </c>
+      <c r="H13" s="57"/>
       <c r="I13" s="57"/>
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="57"/>
       <c r="M13" s="57"/>
-      <c r="N13" s="57" t="s">
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="57" t="s">
+      <c r="U13" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="Q13" s="75"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W13" s="76"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="39" t="s">
         <v>74</v>
@@ -3337,23 +4521,27 @@
       <c r="G14" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="55" t="s">
-        <v>51</v>
-      </c>
+      <c r="H14" s="55"/>
       <c r="I14" s="55"/>
       <c r="J14" s="55"/>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
       <c r="M14" s="55"/>
-      <c r="N14" s="55" t="s">
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="55" t="s">
+      <c r="U14" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="75"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W14" s="76"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="39" t="s">
         <v>75</v>
@@ -3367,23 +4555,27 @@
       <c r="G15" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="55" t="s">
-        <v>31</v>
-      </c>
+      <c r="H15" s="55"/>
       <c r="I15" s="55"/>
       <c r="J15" s="55"/>
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
       <c r="M15" s="55"/>
-      <c r="N15" s="55" t="s">
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="55" t="s">
+      <c r="U15" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="75"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W15" s="76"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="40" t="s">
         <v>7</v>
@@ -3397,23 +4589,27 @@
       <c r="G16" s="56">
         <v>0.42</v>
       </c>
-      <c r="H16" s="56">
-        <v>0.42</v>
-      </c>
+      <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
       <c r="L16" s="56"/>
       <c r="M16" s="56"/>
-      <c r="N16" s="56">
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56">
         <v>0.94</v>
       </c>
-      <c r="O16" s="56">
+      <c r="U16" s="56">
         <v>0.95</v>
       </c>
-      <c r="Q16" s="75"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W16" s="76"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -3431,26 +4627,29 @@
         <f>C17*200</f>
         <v>0</v>
       </c>
-      <c r="H17" s="20">
-        <f>D17*200</f>
-        <v>600</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
-      <c r="N17" s="20">
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20">
         <f>D17*300</f>
         <v>900</v>
       </c>
-      <c r="O17" s="20">
+      <c r="U17" s="20">
         <f>D17*500</f>
         <v>1500</v>
       </c>
-      <c r="Q17" s="76"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W17" s="77"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="43" t="s">
         <v>1</v>
@@ -3464,23 +4663,27 @@
       <c r="G18" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="59" t="s">
-        <v>23</v>
-      </c>
+      <c r="H18" s="59"/>
       <c r="I18" s="59"/>
       <c r="J18" s="59"/>
       <c r="K18" s="59"/>
       <c r="L18" s="59"/>
       <c r="M18" s="59"/>
-      <c r="N18" s="59" t="s">
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="59" t="s">
+      <c r="U18" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="Q18" s="76"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W18" s="77"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="44" t="s">
         <v>74</v>
@@ -3494,23 +4697,27 @@
       <c r="G19" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="47" t="s">
-        <v>36</v>
-      </c>
+      <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
       <c r="K19" s="47"/>
       <c r="L19" s="47"/>
       <c r="M19" s="47"/>
-      <c r="N19" s="47" t="s">
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="47" t="s">
+      <c r="U19" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="76"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W19" s="77"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
       <c r="B20" s="44" t="s">
         <v>75</v>
@@ -3524,23 +4731,27 @@
       <c r="G20" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="47" t="s">
-        <v>47</v>
-      </c>
+      <c r="H20" s="47"/>
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
       <c r="K20" s="47"/>
       <c r="L20" s="47"/>
       <c r="M20" s="47"/>
-      <c r="N20" s="47" t="s">
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O20" s="47" t="s">
+      <c r="U20" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="Q20" s="76"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W20" s="77"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="45" t="s">
         <v>11</v>
@@ -3554,23 +4765,27 @@
       <c r="G21" s="53">
         <v>0.87</v>
       </c>
-      <c r="H21" s="53">
-        <v>0.87</v>
-      </c>
+      <c r="H21" s="53"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
       <c r="L21" s="53"/>
       <c r="M21" s="53"/>
-      <c r="N21" s="53">
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53">
         <v>0.95</v>
       </c>
-      <c r="O21" s="53" t="s">
+      <c r="U21" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="Q21" s="76"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W21" s="77"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="E22" s="2"/>
@@ -3584,9 +4799,15 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="Q22" s="76"/>
-    </row>
-    <row r="23" spans="1:17" ht="44" x14ac:dyDescent="0.2">
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="W22" s="77"/>
+    </row>
+    <row r="23" spans="1:23" ht="44" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>64</v>
       </c>
@@ -3614,15 +4835,21 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="U23" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q23" s="76"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W23" s="77"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="18"/>
@@ -3649,16 +4876,22 @@
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
-      <c r="N24" s="34">
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34">
         <f>D24*300</f>
         <v>300</v>
       </c>
-      <c r="O24" s="34">
+      <c r="U24" s="34">
         <f>D24*500</f>
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="38" t="s">
         <v>1</v>
@@ -3672,22 +4905,26 @@
       <c r="G25" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="49" t="s">
-        <v>15</v>
-      </c>
+      <c r="H25" s="49"/>
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
       <c r="M25" s="49"/>
-      <c r="N25" s="57" t="s">
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="57" t="s">
+      <c r="U25" s="57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
       <c r="B26" s="39" t="s">
         <v>74</v>
@@ -3701,22 +4938,26 @@
       <c r="G26" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="50" t="s">
-        <v>9</v>
-      </c>
+      <c r="H26" s="50"/>
       <c r="I26" s="50"/>
       <c r="J26" s="50"/>
       <c r="K26" s="50"/>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
-      <c r="N26" s="50" t="s">
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="50" t="s">
+      <c r="U26" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="36"/>
       <c r="B27" s="39" t="s">
         <v>75</v>
@@ -3730,22 +4971,26 @@
       <c r="G27" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="50" t="s">
-        <v>14</v>
-      </c>
+      <c r="H27" s="50"/>
       <c r="I27" s="50"/>
       <c r="J27" s="50"/>
       <c r="K27" s="50"/>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
-      <c r="N27" s="50" t="s">
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="O27" s="50" t="s">
+      <c r="U27" s="50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="36"/>
       <c r="B28" s="40" t="s">
         <v>11</v>
@@ -3759,22 +5004,26 @@
       <c r="G28" s="51">
         <v>0.3</v>
       </c>
-      <c r="H28" s="51">
-        <v>0.3</v>
-      </c>
+      <c r="H28" s="51"/>
       <c r="I28" s="51"/>
       <c r="J28" s="51"/>
       <c r="K28" s="51"/>
       <c r="L28" s="51"/>
       <c r="M28" s="51"/>
-      <c r="N28" s="51">
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51">
         <v>0.33</v>
       </c>
-      <c r="O28" s="51">
+      <c r="U28" s="51">
         <v>0.52</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -3792,25 +5041,28 @@
         <f>C29*200</f>
         <v>0</v>
       </c>
-      <c r="H29" s="20">
-        <f>D29*200</f>
-        <v>400</v>
-      </c>
+      <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
-      <c r="N29" s="20">
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20">
         <f>D29*300</f>
         <v>600</v>
       </c>
-      <c r="O29" s="20">
+      <c r="U29" s="20">
         <f>D29*500</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="10" t="s">
         <v>1</v>
@@ -3824,22 +5076,26 @@
       <c r="G30" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="59" t="s">
-        <v>25</v>
-      </c>
+      <c r="H30" s="59"/>
       <c r="I30" s="59"/>
       <c r="J30" s="59"/>
       <c r="K30" s="59"/>
       <c r="L30" s="59"/>
       <c r="M30" s="59"/>
-      <c r="N30" s="12" t="s">
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O30" s="59" t="s">
+      <c r="U30" s="59" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31" s="10" t="s">
         <v>74</v>
@@ -3853,22 +5109,26 @@
       <c r="G31" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="47" t="s">
-        <v>26</v>
-      </c>
+      <c r="H31" s="47"/>
       <c r="I31" s="47"/>
       <c r="J31" s="47"/>
       <c r="K31" s="47"/>
       <c r="L31" s="47"/>
       <c r="M31" s="47"/>
-      <c r="N31" s="11" t="s">
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O31" s="47" t="s">
+      <c r="U31" s="47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" s="10" t="s">
         <v>75</v>
@@ -3882,22 +5142,26 @@
       <c r="G32" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="47" t="s">
-        <v>20</v>
-      </c>
+      <c r="H32" s="47"/>
       <c r="I32" s="47"/>
       <c r="J32" s="47"/>
       <c r="K32" s="47"/>
       <c r="L32" s="47"/>
       <c r="M32" s="47"/>
-      <c r="N32" s="11" t="s">
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="47" t="s">
+      <c r="U32" s="47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="10" t="s">
         <v>11</v>
@@ -3911,22 +5175,26 @@
       <c r="G33" s="53">
         <v>0.48</v>
       </c>
-      <c r="H33" s="53">
-        <v>0.48</v>
-      </c>
+      <c r="H33" s="53"/>
       <c r="I33" s="53"/>
       <c r="J33" s="53"/>
       <c r="K33" s="53"/>
       <c r="L33" s="53"/>
       <c r="M33" s="53"/>
-      <c r="N33" s="13">
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="13">
         <v>0.74</v>
       </c>
-      <c r="O33" s="53">
+      <c r="U33" s="53">
         <v>0.95</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -3944,25 +5212,28 @@
         <f>C34*200</f>
         <v>0</v>
       </c>
-      <c r="H34" s="20">
-        <f>D34*200</f>
-        <v>600</v>
-      </c>
+      <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
-      <c r="N34" s="20">
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20">
         <f>D34*300</f>
         <v>900</v>
       </c>
-      <c r="O34" s="20">
+      <c r="U34" s="20">
         <f>D34*500</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="38" t="s">
         <v>1</v>
@@ -3976,22 +5247,26 @@
       <c r="G35" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="57" t="s">
-        <v>23</v>
-      </c>
+      <c r="H35" s="57"/>
       <c r="I35" s="57"/>
       <c r="J35" s="57"/>
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
       <c r="M35" s="57"/>
-      <c r="N35" s="57" t="s">
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="O35" s="57" t="s">
+      <c r="U35" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="36"/>
       <c r="B36" s="39" t="s">
         <v>74</v>
@@ -4005,22 +5280,26 @@
       <c r="G36" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="50" t="s">
-        <v>26</v>
-      </c>
+      <c r="H36" s="50"/>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
       <c r="K36" s="50"/>
       <c r="L36" s="50"/>
       <c r="M36" s="50"/>
-      <c r="N36" s="50" t="s">
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="O36" s="50" t="s">
+      <c r="U36" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="36"/>
       <c r="B37" s="39" t="s">
         <v>75</v>
@@ -4034,22 +5313,26 @@
       <c r="G37" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="50" t="s">
-        <v>24</v>
-      </c>
+      <c r="H37" s="50"/>
       <c r="I37" s="50"/>
       <c r="J37" s="50"/>
       <c r="K37" s="50"/>
       <c r="L37" s="50"/>
       <c r="M37" s="50"/>
-      <c r="N37" s="50" t="s">
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="O37" s="50" t="s">
+      <c r="U37" s="50" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="37"/>
       <c r="B38" s="40" t="s">
         <v>11</v>
@@ -4063,23 +5346,27 @@
       <c r="G38" s="51">
         <v>0.65</v>
       </c>
-      <c r="H38" s="51">
-        <v>0.65</v>
-      </c>
+      <c r="H38" s="51"/>
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
       <c r="K38" s="51"/>
       <c r="L38" s="51"/>
       <c r="M38" s="51"/>
-      <c r="N38" s="51">
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51">
         <v>0.73</v>
       </c>
-      <c r="O38" s="51">
+      <c r="U38" s="51">
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>6</v>
       </c>
@@ -4107,14 +5394,20 @@
       <c r="K40" s="60"/>
       <c r="L40" s="60"/>
       <c r="M40" s="60"/>
-      <c r="N40" s="60" t="s">
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="O40" s="60" t="s">
+      <c r="U40" s="60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>1</v>
@@ -4130,24 +5423,28 @@
       <c r="G41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="U41" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Q4:Q23"/>
+    <mergeCell ref="W4:W23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4156,10 +5453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385BE553-DAEA-2B4A-9C29-7E81AC3CC68B}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4352,7 +5649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="72" t="s">
         <v>108</v>
       </c>
@@ -4372,7 +5669,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>133</v>
       </c>
@@ -4383,7 +5680,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>128</v>
       </c>
@@ -4406,227 +5703,248 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="73"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" s="72" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>102</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E35" t="s">
         <v>105</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C36" t="s">
         <v>103</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D36" t="s">
         <v>104</v>
       </c>
-      <c r="E29">
+      <c r="E36">
         <v>96</v>
       </c>
-      <c r="F29">
+      <c r="F36">
         <v>104</v>
       </c>
-      <c r="H29">
+      <c r="H36">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E30">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E37">
         <v>96</v>
       </c>
-      <c r="F30">
-        <f>F29+H29</f>
+      <c r="F37">
+        <f>F36+H36</f>
         <v>208</v>
       </c>
-      <c r="H30">
+      <c r="H37">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E31">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E38">
         <v>96</v>
       </c>
-      <c r="F31">
-        <f t="shared" ref="F31:F89" si="0">F30+H30</f>
+      <c r="F38">
+        <f t="shared" ref="F38:F96" si="0">F37+H37</f>
         <v>312</v>
       </c>
-      <c r="H31">
+      <c r="H38">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F32">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F39">
         <f t="shared" si="0"/>
         <v>416</v>
       </c>
-      <c r="H32">
+      <c r="H39">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F33">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F40">
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
-      <c r="H33">
+      <c r="H40">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F34">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F41">
         <f t="shared" si="0"/>
         <v>624</v>
       </c>
-      <c r="H34">
+      <c r="H41">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F42">
         <f t="shared" si="0"/>
         <v>728</v>
       </c>
-      <c r="H35">
+      <c r="H42">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F36">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F43">
         <f t="shared" si="0"/>
         <v>832</v>
       </c>
-      <c r="H36">
+      <c r="H43">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F37">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F44">
         <f t="shared" si="0"/>
         <v>936</v>
       </c>
-      <c r="H37">
+      <c r="H44">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F38">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F45">
         <f t="shared" si="0"/>
         <v>1040</v>
       </c>
-      <c r="H38">
+      <c r="H45">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F39">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F46">
         <f t="shared" si="0"/>
         <v>1144</v>
       </c>
-      <c r="H39">
+      <c r="H46">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F40">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F47">
         <f t="shared" si="0"/>
         <v>1248</v>
       </c>
-      <c r="H40">
+      <c r="H47">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F41">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F48">
         <f t="shared" si="0"/>
         <v>1352</v>
-      </c>
-      <c r="H41">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>1456</v>
-      </c>
-      <c r="H42">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>1560</v>
-      </c>
-      <c r="H43">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>1664</v>
-      </c>
-      <c r="H44">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>1768</v>
-      </c>
-      <c r="H45">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>1872</v>
-      </c>
-      <c r="H46">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>1976</v>
-      </c>
-      <c r="H47">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>2080</v>
       </c>
       <c r="H48">
         <v>104</v>
@@ -4635,7 +5953,7 @@
     <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>2184</v>
+        <v>1456</v>
       </c>
       <c r="H49">
         <v>104</v>
@@ -4644,7 +5962,7 @@
     <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>2288</v>
+        <v>1560</v>
       </c>
       <c r="H50">
         <v>104</v>
@@ -4653,7 +5971,7 @@
     <row r="51" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>2392</v>
+        <v>1664</v>
       </c>
       <c r="H51">
         <v>104</v>
@@ -4662,7 +5980,7 @@
     <row r="52" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>2496</v>
+        <v>1768</v>
       </c>
       <c r="H52">
         <v>104</v>
@@ -4671,7 +5989,7 @@
     <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>1872</v>
       </c>
       <c r="H53">
         <v>104</v>
@@ -4680,7 +5998,7 @@
     <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>2704</v>
+        <v>1976</v>
       </c>
       <c r="H54">
         <v>104</v>
@@ -4689,7 +6007,7 @@
     <row r="55" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>2808</v>
+        <v>2080</v>
       </c>
       <c r="H55">
         <v>104</v>
@@ -4698,7 +6016,7 @@
     <row r="56" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>2912</v>
+        <v>2184</v>
       </c>
       <c r="H56">
         <v>104</v>
@@ -4707,7 +6025,7 @@
     <row r="57" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F57">
         <f t="shared" si="0"/>
-        <v>3016</v>
+        <v>2288</v>
       </c>
       <c r="H57">
         <v>104</v>
@@ -4716,7 +6034,7 @@
     <row r="58" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>2392</v>
       </c>
       <c r="H58">
         <v>104</v>
@@ -4725,7 +6043,7 @@
     <row r="59" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F59">
         <f t="shared" si="0"/>
-        <v>3224</v>
+        <v>2496</v>
       </c>
       <c r="H59">
         <v>104</v>
@@ -4734,7 +6052,7 @@
     <row r="60" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F60">
         <f t="shared" si="0"/>
-        <v>3328</v>
+        <v>2600</v>
       </c>
       <c r="H60">
         <v>104</v>
@@ -4743,7 +6061,7 @@
     <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61">
         <f t="shared" si="0"/>
-        <v>3432</v>
+        <v>2704</v>
       </c>
       <c r="H61">
         <v>104</v>
@@ -4752,7 +6070,7 @@
     <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62">
         <f t="shared" si="0"/>
-        <v>3536</v>
+        <v>2808</v>
       </c>
       <c r="H62">
         <v>104</v>
@@ -4761,7 +6079,7 @@
     <row r="63" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F63">
         <f t="shared" si="0"/>
-        <v>3640</v>
+        <v>2912</v>
       </c>
       <c r="H63">
         <v>104</v>
@@ -4770,7 +6088,7 @@
     <row r="64" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F64">
         <f t="shared" si="0"/>
-        <v>3744</v>
+        <v>3016</v>
       </c>
       <c r="H64">
         <v>104</v>
@@ -4779,7 +6097,7 @@
     <row r="65" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F65">
         <f t="shared" si="0"/>
-        <v>3848</v>
+        <v>3120</v>
       </c>
       <c r="H65">
         <v>104</v>
@@ -4788,7 +6106,7 @@
     <row r="66" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F66">
         <f t="shared" si="0"/>
-        <v>3952</v>
+        <v>3224</v>
       </c>
       <c r="H66">
         <v>104</v>
@@ -4797,7 +6115,7 @@
     <row r="67" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F67">
         <f t="shared" si="0"/>
-        <v>4056</v>
+        <v>3328</v>
       </c>
       <c r="H67">
         <v>104</v>
@@ -4806,7 +6124,7 @@
     <row r="68" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F68">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>3432</v>
       </c>
       <c r="H68">
         <v>104</v>
@@ -4815,7 +6133,7 @@
     <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69">
         <f t="shared" si="0"/>
-        <v>4264</v>
+        <v>3536</v>
       </c>
       <c r="H69">
         <v>104</v>
@@ -4824,7 +6142,7 @@
     <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70">
         <f t="shared" si="0"/>
-        <v>4368</v>
+        <v>3640</v>
       </c>
       <c r="H70">
         <v>104</v>
@@ -4833,7 +6151,7 @@
     <row r="71" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F71">
         <f t="shared" si="0"/>
-        <v>4472</v>
+        <v>3744</v>
       </c>
       <c r="H71">
         <v>104</v>
@@ -4842,7 +6160,7 @@
     <row r="72" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F72">
         <f t="shared" si="0"/>
-        <v>4576</v>
+        <v>3848</v>
       </c>
       <c r="H72">
         <v>104</v>
@@ -4851,7 +6169,7 @@
     <row r="73" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F73">
         <f t="shared" si="0"/>
-        <v>4680</v>
+        <v>3952</v>
       </c>
       <c r="H73">
         <v>104</v>
@@ -4860,7 +6178,7 @@
     <row r="74" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F74">
         <f t="shared" si="0"/>
-        <v>4784</v>
+        <v>4056</v>
       </c>
       <c r="H74">
         <v>104</v>
@@ -4869,7 +6187,7 @@
     <row r="75" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F75">
         <f t="shared" si="0"/>
-        <v>4888</v>
+        <v>4160</v>
       </c>
       <c r="H75">
         <v>104</v>
@@ -4878,7 +6196,7 @@
     <row r="76" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F76">
         <f t="shared" si="0"/>
-        <v>4992</v>
+        <v>4264</v>
       </c>
       <c r="H76">
         <v>104</v>
@@ -4887,7 +6205,7 @@
     <row r="77" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F77">
         <f t="shared" si="0"/>
-        <v>5096</v>
+        <v>4368</v>
       </c>
       <c r="H77">
         <v>104</v>
@@ -4896,7 +6214,7 @@
     <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>4472</v>
       </c>
       <c r="H78">
         <v>104</v>
@@ -4905,7 +6223,7 @@
     <row r="79" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F79">
         <f t="shared" si="0"/>
-        <v>5304</v>
+        <v>4576</v>
       </c>
       <c r="H79">
         <v>104</v>
@@ -4914,7 +6232,7 @@
     <row r="80" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F80">
         <f t="shared" si="0"/>
-        <v>5408</v>
+        <v>4680</v>
       </c>
       <c r="H80">
         <v>104</v>
@@ -4923,7 +6241,7 @@
     <row r="81" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F81">
         <f t="shared" si="0"/>
-        <v>5512</v>
+        <v>4784</v>
       </c>
       <c r="H81">
         <v>104</v>
@@ -4932,7 +6250,7 @@
     <row r="82" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F82">
         <f t="shared" si="0"/>
-        <v>5616</v>
+        <v>4888</v>
       </c>
       <c r="H82">
         <v>104</v>
@@ -4941,7 +6259,7 @@
     <row r="83" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F83">
         <f t="shared" si="0"/>
-        <v>5720</v>
+        <v>4992</v>
       </c>
       <c r="H83">
         <v>104</v>
@@ -4950,7 +6268,7 @@
     <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84">
         <f t="shared" si="0"/>
-        <v>5824</v>
+        <v>5096</v>
       </c>
       <c r="H84">
         <v>104</v>
@@ -4959,7 +6277,7 @@
     <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85">
         <f t="shared" si="0"/>
-        <v>5928</v>
+        <v>5200</v>
       </c>
       <c r="H85">
         <v>104</v>
@@ -4968,7 +6286,7 @@
     <row r="86" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F86">
         <f t="shared" si="0"/>
-        <v>6032</v>
+        <v>5304</v>
       </c>
       <c r="H86">
         <v>104</v>
@@ -4977,7 +6295,7 @@
     <row r="87" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F87">
         <f t="shared" si="0"/>
-        <v>6136</v>
+        <v>5408</v>
       </c>
       <c r="H87">
         <v>104</v>
@@ -4986,7 +6304,7 @@
     <row r="88" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F88">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>5512</v>
       </c>
       <c r="H88">
         <v>104</v>
@@ -4995,9 +6313,72 @@
     <row r="89" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F89">
         <f t="shared" si="0"/>
+        <v>5616</v>
+      </c>
+      <c r="H89">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <f t="shared" si="0"/>
+        <v>5720</v>
+      </c>
+      <c r="H90">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <f t="shared" si="0"/>
+        <v>5824</v>
+      </c>
+      <c r="H91">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <f t="shared" si="0"/>
+        <v>5928</v>
+      </c>
+      <c r="H92">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <f t="shared" si="0"/>
+        <v>6032</v>
+      </c>
+      <c r="H93">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <f t="shared" si="0"/>
+        <v>6136</v>
+      </c>
+      <c r="H94">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <f t="shared" si="0"/>
+        <v>6240</v>
+      </c>
+      <c r="H95">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <f t="shared" si="0"/>
         <v>6344</v>
       </c>
-      <c r="H89">
+      <c r="H96">
         <v>104</v>
       </c>
     </row>

--- a/docs/PerformanceGenerator.xlsx
+++ b/docs/PerformanceGenerator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaronprigal/sources/github/sample-azure-eventer/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C30C5D-030C-9240-890A-008F427613E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1A111F-D343-D74D-AEB3-02BB3CD4FC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3936,8 +3936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B43E74-5CC3-EB49-A9D0-22415A944AAB}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="116" zoomScaleNormal="247" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5455,8 +5455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385BE553-DAEA-2B4A-9C29-7E81AC3CC68B}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B34" sqref="A30:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
